--- a/DuleCard/配置表/卡牌Buff配置表.xlsx
+++ b/DuleCard/配置表/卡牌Buff配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20955" windowHeight="11595" tabRatio="627"/>
+    <workbookView windowWidth="28245" windowHeight="12465" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="BuffCfg" sheetId="4" r:id="rId1"/>
@@ -883,7 +883,7 @@
     <t>斗转星移Comob3</t>
   </si>
   <si>
-    <t>获得【反伤2】，持续2回合</t>
+    <t>获得&lt;b&gt;反伤2&lt;/b&gt;，持续2回合</t>
   </si>
   <si>
     <t>Texture/Icon/Buff/buff52</t>
@@ -895,7 +895,7 @@
     <t>斗转星移Comob4</t>
   </si>
   <si>
-    <t>获得【反伤4】，持续3回合</t>
+    <t>获得&lt;b&gt;反伤4&lt;/b&gt;，持续3回合</t>
   </si>
   <si>
     <t>1-4</t>
@@ -1066,12 +1066,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,22 +1087,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,46 +1109,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,24 +1137,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,15 +1170,46 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,14 +1222,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1252,13 +1245,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,19 +1365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,49 +1395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,91 +1407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,6 +1423,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1458,50 +1445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,10 +1471,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1547,11 +1502,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1561,150 +1548,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1809,16 +1796,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1854,17 +1841,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1885,7 +1875,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1898,10 +1888,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2276,11 +2266,11 @@
   <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="$A95:$XFD95"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5214,7 +5204,7 @@
       <c r="B70" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="40" t="s">
         <v>218</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -5255,7 +5245,7 @@
       <c r="B71" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="40" t="s">
         <v>220</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -5340,7 +5330,7 @@
       <c r="A73" s="5">
         <v>34004</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="40" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="39" t="s">
@@ -5384,10 +5374,10 @@
       <c r="A74" s="5">
         <v>34006</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="40" t="s">
         <v>229</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -5510,13 +5500,13 @@
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="55">
+      <c r="A77" s="53">
         <v>46003</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="C77" s="56" t="s">
+      <c r="C77" s="55" t="s">
         <v>239</v>
       </c>
       <c r="D77" s="6" t="s">
@@ -5554,13 +5544,13 @@
       </c>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="38">
+      <c r="A78" s="56">
         <v>46004</v>
       </c>
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="54" t="s">
         <v>243</v>
       </c>
       <c r="D78" s="6" t="s">
@@ -5604,7 +5594,7 @@
       <c r="B79" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="C79" s="58" t="s">
         <v>246</v>
       </c>
       <c r="D79" s="24" t="s">
@@ -5962,7 +5952,7 @@
       <c r="B87" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="59" t="s">
         <v>265</v>
       </c>
       <c r="D87" s="24" t="s">
@@ -6085,55 +6075,55 @@
       </c>
     </row>
     <row r="90" s="4" customFormat="1" spans="1:18">
-      <c r="A90" s="59">
+      <c r="A90" s="60">
         <v>21105</v>
       </c>
-      <c r="B90" s="60" t="s">
+      <c r="B90" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="C90" s="61" t="s">
+      <c r="C90" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="E90" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" s="62"/>
-      <c r="G90" s="62">
-        <v>1</v>
-      </c>
-      <c r="H90" s="62">
-        <v>1</v>
-      </c>
-      <c r="I90" s="62">
+      <c r="E90" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63">
+        <v>1</v>
+      </c>
+      <c r="H90" s="63">
+        <v>1</v>
+      </c>
+      <c r="I90" s="63">
         <v>12</v>
       </c>
-      <c r="J90" s="62">
-        <v>2</v>
-      </c>
-      <c r="K90" s="62">
-        <v>0</v>
-      </c>
-      <c r="L90" s="62">
-        <v>1</v>
-      </c>
-      <c r="M90" s="62"/>
-      <c r="N90" s="72">
-        <v>-1</v>
-      </c>
-      <c r="O90" s="62">
+      <c r="J90" s="63">
+        <v>2</v>
+      </c>
+      <c r="K90" s="63">
+        <v>0</v>
+      </c>
+      <c r="L90" s="63">
+        <v>1</v>
+      </c>
+      <c r="M90" s="63"/>
+      <c r="N90" s="73">
+        <v>-1</v>
+      </c>
+      <c r="O90" s="63">
         <v>-1</v>
       </c>
       <c r="P90" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="Q90" s="73"/>
-      <c r="R90" s="62"/>
+      <c r="Q90" s="74"/>
+      <c r="R90" s="63"/>
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="5">
         <v>21106</v>
       </c>
-      <c r="B91" s="60" t="s">
+      <c r="B91" s="61" t="s">
         <v>272</v>
       </c>
       <c r="C91" s="37" t="s">
@@ -6175,10 +6165,10 @@
       <c r="P91" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q91" s="74" t="s">
+      <c r="Q91" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="R91" s="71" t="s">
+      <c r="R91" s="72" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6274,10 +6264,10 @@
       <c r="A94" s="5">
         <v>37004</v>
       </c>
-      <c r="B94" s="63" t="s">
+      <c r="B94" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="C94" s="54" t="s">
+      <c r="C94" s="40" t="s">
         <v>226</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -6315,13 +6305,13 @@
       </c>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="55">
+      <c r="A95" s="53">
         <v>41203</v>
       </c>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="55" t="s">
         <v>280</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -6359,13 +6349,13 @@
       </c>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="38">
+      <c r="A96" s="56">
         <v>41204</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="C96" s="64" t="s">
+      <c r="C96" s="65" t="s">
         <v>284</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -6406,10 +6396,10 @@
       <c r="A97" s="5">
         <v>47002</v>
       </c>
-      <c r="B97" s="65" t="s">
+      <c r="B97" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="66" t="s">
+      <c r="C97" s="67" t="s">
         <v>287</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -6450,10 +6440,10 @@
       <c r="A98" s="5">
         <v>47004</v>
       </c>
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="C98" s="66" t="s">
+      <c r="C98" s="67" t="s">
         <v>287</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -6494,10 +6484,10 @@
       <c r="A99" s="5">
         <v>47008</v>
       </c>
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="C99" s="66" t="s">
+      <c r="C99" s="67" t="s">
         <v>290</v>
       </c>
       <c r="E99" s="8" t="b">
@@ -6535,10 +6525,10 @@
       <c r="A100" s="5">
         <v>48002</v>
       </c>
-      <c r="B100" s="65" t="s">
+      <c r="B100" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="C100" s="66" t="s">
+      <c r="C100" s="67" t="s">
         <v>257</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -6579,10 +6569,10 @@
       <c r="A101" s="5">
         <v>48004</v>
       </c>
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C101" s="66" t="s">
+      <c r="C101" s="67" t="s">
         <v>293</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -6626,7 +6616,7 @@
       <c r="B102" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="C102" s="67" t="s">
+      <c r="C102" s="68" t="s">
         <v>295</v>
       </c>
       <c r="E102" s="8" t="b">
@@ -6661,13 +6651,13 @@
       </c>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="68">
+      <c r="A103" s="69">
         <v>18001</v>
       </c>
       <c r="B103" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="59" t="s">
         <v>297</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -6705,13 +6695,13 @@
       </c>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="68">
+      <c r="A104" s="69">
         <v>18002</v>
       </c>
       <c r="B104" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="C104" s="58" t="s">
+      <c r="C104" s="59" t="s">
         <v>299</v>
       </c>
       <c r="D104" s="6" t="s">
@@ -6749,13 +6739,13 @@
       </c>
     </row>
     <row r="105" spans="1:16">
-      <c r="A105" s="68">
+      <c r="A105" s="69">
         <v>18003</v>
       </c>
       <c r="B105" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="59" t="s">
         <v>301</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -6793,13 +6783,13 @@
       </c>
     </row>
     <row r="106" spans="1:16">
-      <c r="A106" s="68">
+      <c r="A106" s="69">
         <v>18004</v>
       </c>
       <c r="B106" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="C106" s="58" t="s">
+      <c r="C106" s="59" t="s">
         <v>304</v>
       </c>
       <c r="D106" s="6" t="s">
@@ -6840,10 +6830,10 @@
       <c r="A107" s="5">
         <v>18006</v>
       </c>
-      <c r="B107" s="69" t="s">
+      <c r="B107" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="C107" s="70" t="s">
+      <c r="C107" s="71" t="s">
         <v>306</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -6861,7 +6851,7 @@
       <c r="I107" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="J107" s="75" t="s">
+      <c r="J107" s="76" t="s">
         <v>308</v>
       </c>
       <c r="K107" s="8">
@@ -6884,10 +6874,10 @@
       <c r="A108" s="5">
         <v>1000</v>
       </c>
-      <c r="B108" s="65" t="s">
+      <c r="B108" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="C108" s="66" t="s">
+      <c r="C108" s="67" t="s">
         <v>310</v>
       </c>
       <c r="E108" s="8" t="b">
@@ -6922,10 +6912,10 @@
       <c r="A109" s="5">
         <v>1001</v>
       </c>
-      <c r="B109" s="65" t="s">
+      <c r="B109" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="C109" s="66" t="s">
+      <c r="C109" s="67" t="s">
         <v>312</v>
       </c>
       <c r="E109" s="8" t="b">
@@ -6960,10 +6950,10 @@
       <c r="A110" s="5">
         <v>1002</v>
       </c>
-      <c r="B110" s="65" t="s">
+      <c r="B110" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="C110" s="66" t="s">
+      <c r="C110" s="67" t="s">
         <v>314</v>
       </c>
       <c r="E110" s="8" t="b">
@@ -6998,10 +6988,10 @@
       <c r="A111" s="5">
         <v>1003</v>
       </c>
-      <c r="B111" s="65" t="s">
+      <c r="B111" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="C111" s="66" t="s">
+      <c r="C111" s="67" t="s">
         <v>316</v>
       </c>
       <c r="E111" s="8" t="b">
@@ -7039,13 +7029,13 @@
       <c r="A112" s="5">
         <v>1004</v>
       </c>
-      <c r="B112" s="65" t="s">
+      <c r="B112" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="66" t="s">
+      <c r="C112" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="E112" s="71" t="b">
+      <c r="E112" s="72" t="b">
         <v>0</v>
       </c>
       <c r="P112" s="24"/>
@@ -7054,10 +7044,10 @@
       <c r="A113" s="5">
         <v>1005</v>
       </c>
-      <c r="B113" s="65" t="s">
+      <c r="B113" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="C113" s="66" t="s">
+      <c r="C113" s="67" t="s">
         <v>320</v>
       </c>
       <c r="E113" s="8" t="b">
@@ -7098,14 +7088,14 @@
       <c r="B114" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C114" s="66" t="s">
+      <c r="C114" s="67" t="s">
         <v>322</v>
       </c>
       <c r="E114" s="8" t="b">
         <v>0</v>
       </c>
       <c r="P114" s="24"/>
-      <c r="R114" s="71" t="s">
+      <c r="R114" s="72" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7116,7 +7106,7 @@
       <c r="B115" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="C115" s="66" t="s">
+      <c r="C115" s="67" t="s">
         <v>325</v>
       </c>
       <c r="E115" s="8" t="b">
@@ -7149,7 +7139,7 @@
       <c r="P115" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="R115" s="71"/>
+      <c r="R115" s="72"/>
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="5">
@@ -7158,7 +7148,7 @@
       <c r="B116" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="C116" s="66" t="s">
+      <c r="C116" s="67" t="s">
         <v>327</v>
       </c>
       <c r="E116" s="8" t="b">
@@ -7194,10 +7184,10 @@
       <c r="P116" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="Q116" s="74" t="s">
+      <c r="Q116" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="R116" s="71" t="s">
+      <c r="R116" s="72" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7208,7 +7198,7 @@
       <c r="B117" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C117" s="66" t="s">
+      <c r="C117" s="67" t="s">
         <v>330</v>
       </c>
       <c r="E117" s="8" t="b">
@@ -7241,17 +7231,17 @@
       <c r="P117" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="Q117" s="74"/>
-      <c r="R117" s="71"/>
+      <c r="Q117" s="75"/>
+      <c r="R117" s="72"/>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="5">
         <v>2000</v>
       </c>
-      <c r="B118" s="65" t="s">
+      <c r="B118" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="C118" s="66" t="s">
+      <c r="C118" s="67" t="s">
         <v>332</v>
       </c>
       <c r="E118" s="8" t="b">
@@ -7281,25 +7271,25 @@
       <c r="P118" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="S118" s="65"/>
+      <c r="S118" s="66"/>
     </row>
     <row r="120" spans="3:16">
-      <c r="C120" s="58"/>
+      <c r="C120" s="59"/>
       <c r="E120" s="25"/>
       <c r="P120" s="1"/>
     </row>
     <row r="121" spans="3:16">
-      <c r="C121" s="58"/>
+      <c r="C121" s="59"/>
       <c r="E121" s="25"/>
       <c r="P121" s="1"/>
     </row>
     <row r="122" spans="3:16">
-      <c r="C122" s="58"/>
+      <c r="C122" s="59"/>
       <c r="E122" s="25"/>
       <c r="P122" s="1"/>
     </row>
     <row r="123" spans="3:16">
-      <c r="C123" s="58"/>
+      <c r="C123" s="59"/>
       <c r="E123" s="25"/>
       <c r="P123" s="1"/>
     </row>
